--- a/scene_cat_exp_2023.2.2_english/input_files/38_scenecat_categorization_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/38_scenecat_categorization_bedrooms_2.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -512,38 +512,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_eh0no.png</t>
+          <t>stimuli/img_mucwi.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>53.66666666666666</v>
+        <v>71.14814814814815</v>
       </c>
       <c r="N2">
-        <v>36.02564102564103</v>
+        <v>48.55555555555556</v>
       </c>
       <c r="O2">
-        <v>44.84615384615385</v>
+        <v>59.85185185185185</v>
       </c>
       <c r="P2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -574,53 +574,53 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_a8y4y.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>75.15789473684211</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N3">
-        <v>53.76315789473684</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O3">
-        <v>64.46052631578948</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -666,38 +666,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_ce55l.png</t>
+          <t>stimuli/img_badai.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>82.23809523809524</v>
+        <v>63.97435897435897</v>
       </c>
       <c r="N4">
-        <v>64.07142857142857</v>
+        <v>43.38461538461539</v>
       </c>
       <c r="O4">
-        <v>73.1547619047619</v>
+        <v>53.67948717948718</v>
       </c>
       <c r="P4">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -743,38 +743,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_0mhms.png</t>
+          <t>stimuli/img_g7870.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>68.70967741935483</v>
       </c>
       <c r="N5">
-        <v>55.68571428571428</v>
+        <v>44.2258064516129</v>
       </c>
       <c r="O5">
-        <v>66.84285714285714</v>
+        <v>56.46774193548387</v>
       </c>
       <c r="P5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -820,38 +820,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_ca8kd.png</t>
+          <t>stimuli/img_kn0we.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>92.05405405405405</v>
+        <v>80.15909090909091</v>
       </c>
       <c r="N6">
-        <v>73.02702702702703</v>
+        <v>56.68181818181818</v>
       </c>
       <c r="O6">
-        <v>82.54054054054055</v>
+        <v>68.42045454545455</v>
       </c>
       <c r="P6">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,35 +882,35 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_89dvt.png</t>
+          <t>stimuli/img_9z99v.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>81.09756097560975</v>
+        <v>81.15625</v>
       </c>
       <c r="N7">
-        <v>64.6829268292683</v>
+        <v>64.78125</v>
       </c>
       <c r="O7">
-        <v>72.89024390243902</v>
+        <v>72.96875</v>
       </c>
       <c r="P7">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -959,53 +959,53 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_lpj57.png</t>
+          <t>stimuli/img_qbdgm.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>74.77777777777777</v>
+        <v>76.88095238095238</v>
       </c>
       <c r="N8">
-        <v>54.44444444444444</v>
+        <v>60.40476190476191</v>
       </c>
       <c r="O8">
-        <v>64.61111111111111</v>
+        <v>68.64285714285714</v>
       </c>
       <c r="P8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>170</v>
+        <v>332</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1051,38 +1051,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_vh7v8.png</t>
+          <t>stimuli/img_koooi.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>78.70454545454545</v>
+        <v>63.95454545454545</v>
       </c>
       <c r="N9">
-        <v>59.63636363636363</v>
+        <v>44.56818181818182</v>
       </c>
       <c r="O9">
-        <v>69.17045454545455</v>
+        <v>54.26136363636364</v>
       </c>
       <c r="P9">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>171</v>
+        <v>333</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1128,38 +1128,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_gqy6z.png</t>
+          <t>stimuli/img_6ddrx.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>86.47368421052632</v>
+        <v>82.2</v>
       </c>
       <c r="N10">
-        <v>68.42105263157895</v>
+        <v>63.68571428571428</v>
       </c>
       <c r="O10">
-        <v>77.44736842105263</v>
+        <v>72.94285714285715</v>
       </c>
       <c r="P10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>172</v>
+        <v>334</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1205,38 +1205,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_4wq98.png</t>
+          <t>stimuli/img_c2pbs.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>78.48387096774194</v>
+        <v>21.95238095238095</v>
       </c>
       <c r="N11">
-        <v>58.12903225806452</v>
+        <v>14.47619047619048</v>
       </c>
       <c r="O11">
-        <v>68.30645161290323</v>
+        <v>18.21428571428572</v>
       </c>
       <c r="P11">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1267,35 +1267,35 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_wijef.png</t>
+          <t>stimuli/img_wz6x5.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>69.875</v>
+        <v>68.3695652173913</v>
       </c>
       <c r="N12">
-        <v>48.025</v>
+        <v>48.47826086956522</v>
       </c>
       <c r="O12">
-        <v>58.95</v>
+        <v>58.42391304347826</v>
       </c>
       <c r="P12">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1359,38 +1359,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_zt893.png</t>
+          <t>stimuli/img_o37la.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>68.53191489361703</v>
+        <v>65.24324324324324</v>
       </c>
       <c r="N13">
-        <v>49.19148936170212</v>
+        <v>42.78378378378378</v>
       </c>
       <c r="O13">
-        <v>58.86170212765958</v>
+        <v>54.01351351351352</v>
       </c>
       <c r="P13">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1421,53 +1421,53 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_7lz7m.png</t>
+          <t>stimuli/img_jge7p.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>51.5531914893617</v>
+        <v>90.42424242424242</v>
       </c>
       <c r="N14">
-        <v>32.87234042553192</v>
+        <v>75.63636363636364</v>
       </c>
       <c r="O14">
-        <v>42.21276595744681</v>
+        <v>83.03030303030303</v>
       </c>
       <c r="P14">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1513,20 +1513,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_kugyw.png</t>
+          <t>stimuli/img_xy930.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>74.25</v>
+        <v>70.5952380952381</v>
       </c>
       <c r="N15">
-        <v>54.10714285714285</v>
+        <v>49.47619047619047</v>
       </c>
       <c r="O15">
-        <v>64.17857142857143</v>
+        <v>60.03571428571429</v>
       </c>
       <c r="P15">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -1538,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>177</v>
+        <v>339</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1575,53 +1575,53 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_psgf7.png</t>
+          <t>stimuli/img_b971s.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>70.5</v>
       </c>
       <c r="N16">
-        <v>11.66666666666667</v>
+        <v>47.61111111111111</v>
       </c>
       <c r="O16">
-        <v>18.83333333333333</v>
+        <v>59.05555555555556</v>
       </c>
       <c r="P16">
         <v>36</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1652,53 +1652,53 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_eppte.png</t>
+          <t>stimuli/img_zv0dq.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>78.42424242424242</v>
+        <v>76.86842105263158</v>
       </c>
       <c r="N17">
-        <v>57.03030303030303</v>
+        <v>52.71052631578947</v>
       </c>
       <c r="O17">
-        <v>67.72727272727272</v>
+        <v>64.78947368421052</v>
       </c>
       <c r="P17">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1744,38 +1744,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_60242.png</t>
+          <t>stimuli/img_d0k76.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>78.33333333333333</v>
+        <v>67.09090909090909</v>
       </c>
       <c r="N18">
-        <v>57.57575757575758</v>
+        <v>46.3030303030303</v>
       </c>
       <c r="O18">
-        <v>67.95454545454545</v>
+        <v>56.6969696969697</v>
       </c>
       <c r="P18">
         <v>33</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V18">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>180</v>
+        <v>342</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_79b5l.png</t>
+          <t>stimuli/img_fbihy.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>72.74285714285715</v>
+        <v>44.39024390243902</v>
       </c>
       <c r="N19">
-        <v>53.31428571428572</v>
+        <v>26.90243902439024</v>
       </c>
       <c r="O19">
-        <v>63.02857142857143</v>
+        <v>35.64634146341464</v>
       </c>
       <c r="P19">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1883,53 +1883,53 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_ozxpp.png</t>
+          <t>stimuli/img_53nbn.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>26.26470588235294</v>
+        <v>73.28888888888889</v>
       </c>
       <c r="N20">
-        <v>11.47058823529412</v>
+        <v>51.15555555555556</v>
       </c>
       <c r="O20">
-        <v>18.86764705882353</v>
+        <v>62.22222222222223</v>
       </c>
       <c r="P20">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1975,38 +1975,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_3jnt7.png</t>
+          <t>stimuli/img_hc49v.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>49.52272727272727</v>
+        <v>70.95121951219512</v>
       </c>
       <c r="N21">
-        <v>35.25</v>
+        <v>53.31707317073171</v>
       </c>
       <c r="O21">
-        <v>42.38636363636364</v>
+        <v>62.13414634146342</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>345</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2037,53 +2037,53 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_emh91.png</t>
+          <t>stimuli/img_sfh4b.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>82.06666666666666</v>
+        <v>69.06521739130434</v>
       </c>
       <c r="N22">
-        <v>63.33333333333334</v>
+        <v>49.54347826086956</v>
       </c>
       <c r="O22">
-        <v>72.7</v>
+        <v>59.30434782608695</v>
       </c>
       <c r="P22">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V22">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2114,53 +2114,53 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_scrdm.png</t>
+          <t>stimuli/img_73pyk.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>78.675</v>
+        <v>69.27659574468085</v>
       </c>
       <c r="N23">
-        <v>57.9</v>
+        <v>47.27659574468085</v>
       </c>
       <c r="O23">
-        <v>68.28749999999999</v>
+        <v>58.27659574468085</v>
       </c>
       <c r="P23">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2206,38 +2206,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_c4uwt.png</t>
+          <t>stimuli/img_sltwe.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>44.48387096774194</v>
+        <v>72.02500000000001</v>
       </c>
       <c r="N24">
-        <v>30.06451612903226</v>
+        <v>46.875</v>
       </c>
       <c r="O24">
-        <v>37.2741935483871</v>
+        <v>59.45</v>
       </c>
       <c r="P24">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_cxpff.png</t>
+          <t>stimuli/img_65cdi.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>74.92307692307692</v>
+        <v>46.92307692307692</v>
       </c>
       <c r="N25">
-        <v>53.28205128205128</v>
+        <v>27</v>
       </c>
       <c r="O25">
-        <v>64.1025641025641</v>
+        <v>36.96153846153846</v>
       </c>
       <c r="P25">
         <v>39</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_bpyv5.png</t>
+          <t>stimuli/img_7os7q.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>59.05882352941177</v>
+        <v>59.7027027027027</v>
       </c>
       <c r="N26">
-        <v>37.55882352941177</v>
+        <v>34.94594594594594</v>
       </c>
       <c r="O26">
-        <v>48.30882352941177</v>
+        <v>47.32432432432432</v>
       </c>
       <c r="P26">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2437,38 +2437,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_5yhyk.png</t>
+          <t>stimuli/img_i7vab.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>46.375</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N27">
-        <v>31.325</v>
+        <v>67.8</v>
       </c>
       <c r="O27">
-        <v>38.85</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="P27">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2490,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2499,53 +2499,53 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_u2o6z.png</t>
+          <t>stimuli/img_swq34.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>58.6</v>
+        <v>64.11363636363636</v>
       </c>
       <c r="N28">
-        <v>38.2</v>
+        <v>43.04545454545455</v>
       </c>
       <c r="O28">
-        <v>48.40000000000001</v>
+        <v>53.57954545454545</v>
       </c>
       <c r="P28">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2567,7 +2567,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>190</v>
+        <v>352</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_0nckg.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>65.94285714285714</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N29">
-        <v>41.17142857142857</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O29">
-        <v>53.55714285714285</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P29">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2653,53 +2653,53 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_g2akb.png</t>
+          <t>stimuli/img_pt3d7.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>87.875</v>
+        <v>65.08571428571429</v>
       </c>
       <c r="N30">
-        <v>79</v>
+        <v>44.65714285714286</v>
       </c>
       <c r="O30">
-        <v>83.4375</v>
+        <v>54.87142857142857</v>
       </c>
       <c r="P30">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2721,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2730,53 +2730,53 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_3m61b.png</t>
+          <t>stimuli/img_bklr1.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>81.97619047619048</v>
+        <v>86.54761904761905</v>
       </c>
       <c r="N31">
-        <v>63.23809523809524</v>
+        <v>67.73809523809524</v>
       </c>
       <c r="O31">
-        <v>72.60714285714286</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="P31">
         <v>42</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V31">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2822,38 +2822,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_cehin.png</t>
+          <t>stimuli/img_4ufga.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>78.86363636363636</v>
+        <v>67.79411764705883</v>
       </c>
       <c r="N32">
-        <v>60.02272727272727</v>
+        <v>41.5</v>
       </c>
       <c r="O32">
-        <v>69.44318181818181</v>
+        <v>54.64705882352941</v>
       </c>
       <c r="P32">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2875,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>194</v>
+        <v>356</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2899,38 +2899,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_kljj4.png</t>
+          <t>stimuli/img_bntrh.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>64.34999999999999</v>
+        <v>76.07894736842105</v>
       </c>
       <c r="N33">
-        <v>44.15</v>
+        <v>53.36842105263158</v>
       </c>
       <c r="O33">
-        <v>54.25</v>
+        <v>64.72368421052632</v>
       </c>
       <c r="P33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V33">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2952,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2976,38 +2976,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_xpco9.png</t>
+          <t>stimuli/img_oau79.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>81.55555555555556</v>
+        <v>70.86486486486487</v>
       </c>
       <c r="N34">
-        <v>64.68888888888888</v>
+        <v>49</v>
       </c>
       <c r="O34">
-        <v>73.12222222222222</v>
+        <v>59.93243243243244</v>
       </c>
       <c r="P34">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V34">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3053,38 +3053,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_24rt2.png</t>
+          <t>stimuli/img_68wfw.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>55.26829268292683</v>
+        <v>68.87878787878788</v>
       </c>
       <c r="N35">
-        <v>34.19512195121951</v>
+        <v>48.96969696969697</v>
       </c>
       <c r="O35">
-        <v>44.73170731707317</v>
+        <v>58.92424242424242</v>
       </c>
       <c r="P35">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3106,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3130,38 +3130,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_zi682.png</t>
+          <t>stimuli/img_dmjh8.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>84.59999999999999</v>
+        <v>57.48648648648648</v>
       </c>
       <c r="N36">
-        <v>69.52500000000001</v>
+        <v>37.64864864864865</v>
       </c>
       <c r="O36">
-        <v>77.0625</v>
+        <v>47.56756756756756</v>
       </c>
       <c r="P36">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>198</v>
+        <v>360</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3207,38 +3207,38 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_zgg62.png</t>
+          <t>stimuli/img_ri0yx.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>82.18421052631579</v>
+        <v>88.96969696969697</v>
       </c>
       <c r="N37">
-        <v>63.52631578947368</v>
+        <v>77.15151515151516</v>
       </c>
       <c r="O37">
-        <v>72.85526315789474</v>
+        <v>83.06060606060606</v>
       </c>
       <c r="P37">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V37">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>199</v>
+        <v>361</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3284,38 +3284,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_e0hwx.png</t>
+          <t>stimuli/img_anjr0.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>78.12121212121212</v>
+        <v>67.88888888888889</v>
       </c>
       <c r="N38">
-        <v>55.36363636363637</v>
+        <v>45.80555555555556</v>
       </c>
       <c r="O38">
-        <v>66.74242424242425</v>
+        <v>56.84722222222222</v>
       </c>
       <c r="P38">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V38">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3361,38 +3361,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_0eflx.png</t>
+          <t>stimuli/img_l1h36.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>76.05128205128206</v>
+        <v>26.64285714285714</v>
       </c>
       <c r="N39">
-        <v>53.53846153846154</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="O39">
-        <v>64.7948717948718</v>
+        <v>17.89285714285714</v>
       </c>
       <c r="P39">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3414,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>201</v>
+        <v>363</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3438,38 +3438,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_qihxi.png</t>
+          <t>stimuli/img_q1ynd.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>76.72222222222223</v>
+        <v>70.05714285714286</v>
       </c>
       <c r="N40">
-        <v>56.33333333333334</v>
+        <v>47.31428571428572</v>
       </c>
       <c r="O40">
-        <v>66.52777777777779</v>
+        <v>58.68571428571429</v>
       </c>
       <c r="P40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V40">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3515,38 +3515,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_xguy9.png</t>
+          <t>stimuli/img_5mw7y.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>78.21621621621621</v>
+        <v>72.65909090909091</v>
       </c>
       <c r="N41">
-        <v>57.24324324324324</v>
+        <v>50.86363636363637</v>
       </c>
       <c r="O41">
-        <v>67.72972972972973</v>
+        <v>61.76136363636364</v>
       </c>
       <c r="P41">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V41">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
